--- a/Data/Forecasts/DA/2023-12-03_exo[].xlsx
+++ b/Data/Forecasts/DA/2023-12-03_exo[].xlsx
@@ -454,7 +454,7 @@
         <v>45263</v>
       </c>
       <c r="B2" t="n">
-        <v>124.0442352294922</v>
+        <v>125.9144134521484</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45263.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>124.6382751464844</v>
+        <v>125.9067153930664</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45263.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>124.6916732788086</v>
+        <v>127.1896591186523</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45263.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>125.2912292480469</v>
+        <v>127.1970520019531</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45263.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>123.164794921875</v>
+        <v>126.2445678710938</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45263.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>123.156852722168</v>
+        <v>126.2588882446289</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45263.125</v>
       </c>
       <c r="B8" t="n">
-        <v>124.3461074829102</v>
+        <v>126.0774307250977</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45263.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>124.3046417236328</v>
+        <v>126.0475692749023</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45263.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>124.7710418701172</v>
+        <v>126.6835403442383</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45263.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>124.7304077148438</v>
+        <v>126.6560211181641</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45263.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>129.8410034179688</v>
+        <v>131.4456939697266</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45263.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>129.8076629638672</v>
+        <v>131.4291534423828</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45263.25</v>
       </c>
       <c r="B14" t="n">
-        <v>146.763671875</v>
+        <v>145.6224517822266</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45263.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>146.7398376464844</v>
+        <v>145.6199951171875</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45263.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>171.6161346435547</v>
+        <v>174.6736450195312</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45263.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>171.6014404296875</v>
+        <v>174.6851348876953</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45263.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>182.2579650878906</v>
+        <v>191.0147857666016</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45263.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>182.2666625976562</v>
+        <v>191.0659637451172</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45263.375</v>
       </c>
       <c r="B20" t="n">
-        <v>191.9160614013672</v>
+        <v>202.4267578125</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45263.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>191.9292449951172</v>
+        <v>202.4864196777344</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45263.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>194.1314392089844</v>
+        <v>201.2635345458984</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45263.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>194.1475524902344</v>
+        <v>201.3295135498047</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>189.9271697998047</v>
+        <v>192.1592864990234</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45263.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>189.9450988769531</v>
+        <v>192.2299652099609</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45263.5</v>
       </c>
       <c r="B26" t="n">
-        <v>191.9303894042969</v>
+        <v>191.3470764160156</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45263.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>191.9491577148438</v>
+        <v>191.4209899902344</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>189.835693359375</v>
+        <v>188.7110595703125</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45263.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>189.8540191650391</v>
+        <v>188.7864532470703</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45263.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>195.2097778320312</v>
+        <v>191.3690795898438</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45263.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>195.2266540527344</v>
+        <v>191.444580078125</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45263.625</v>
       </c>
       <c r="B32" t="n">
-        <v>211.5980834960938</v>
+        <v>204.1963195800781</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45263.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>211.6131286621094</v>
+        <v>204.2711334228516</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45263.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>241.3923034667969</v>
+        <v>230.5118560791016</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45263.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>241.4057464599609</v>
+        <v>230.5858154296875</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45263.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>279.5066528320312</v>
+        <v>252.0239715576172</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45263.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>279.519287109375</v>
+        <v>252.0974884033203</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45263.75</v>
       </c>
       <c r="B38" t="n">
-        <v>239.6614685058594</v>
+        <v>216.789794921875</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45263.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>239.6742248535156</v>
+        <v>216.8633880615234</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45263.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>211.8265228271484</v>
+        <v>189.0462188720703</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45263.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>211.8397064208984</v>
+        <v>189.1197662353516</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45263.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>197.3006439208984</v>
+        <v>171.1269989013672</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>45263.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>197.3134765625</v>
+        <v>171.199462890625</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>45263.875</v>
       </c>
       <c r="B44" t="n">
-        <v>176.0885772705078</v>
+        <v>159.6818695068359</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>45263.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>176.0995483398438</v>
+        <v>159.7518463134766</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45263.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>156.4645843505859</v>
+        <v>149.7577667236328</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45263.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>156.4744873046875</v>
+        <v>149.8244934082031</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45263.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>161.3038635253906</v>
+        <v>150.2505340576172</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45263.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>161.3111419677734</v>
+        <v>150.3140106201172</v>
       </c>
     </row>
   </sheetData>
